--- a/attached_assets/MDF_Details.xlsx
+++ b/attached_assets/MDF_Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
   <si>
     <t>Question</t>
   </si>
@@ -506,6 +506,48 @@
   </si>
   <si>
     <t>Tell me the price of MDF</t>
+  </si>
+  <si>
+    <t>Is TESA MDF built for all climates?</t>
+  </si>
+  <si>
+    <t>Yes, Action TESA produces Interior and Exterior Grade MDF boards. They are engineered to meet the vivid needs of customers and remain great in changing Indian weather. They are resistant to termites, borers, fungus and moisture. They are eco-friendly and a perfect choice to produce quality furniture.</t>
+  </si>
+  <si>
+    <t>Can TESA MDF handle Indian weather?</t>
+  </si>
+  <si>
+    <t>TESA MDF good for indoors &amp; outdoors?</t>
+  </si>
+  <si>
+    <t>Weatherproof MDF by Action TESA?</t>
+  </si>
+  <si>
+    <t>Is TESA MDF moisture resistant?</t>
+  </si>
+  <si>
+    <t>Eco-safe &amp; durable MDF from TESA?</t>
+  </si>
+  <si>
+    <t>TESA MDF meets EU standards?</t>
+  </si>
+  <si>
+    <t>Yes,Emission classes E1 and E2 were created by European Standard EN 13986 for use in construction where formaldehyde-containing resins have been added to products and, most importantly, it is a necessary term when organizations export products to European nations. Action TESA manufactures the necessary CARB-certified EO, E1 &amp; E2 quality MDF boards.</t>
+  </si>
+  <si>
+    <t>E1/E2 certified MDF by TESA?</t>
+  </si>
+  <si>
+    <t>TESA MDF safe for exports?</t>
+  </si>
+  <si>
+    <t>TESA boards low formaldehyde?</t>
+  </si>
+  <si>
+    <t>EU-grade MDF from Action TESA?</t>
+  </si>
+  <si>
+    <t>TESA MDF E0, E1 &amp; E2 compliant?</t>
   </si>
 </sst>
 </file>
@@ -860,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1800,6 +1842,102 @@
         <v>153</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>175</v>
+      </c>
+      <c r="B109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
